--- a/Project/BuildProto/Excel/UIWindow.xlsx
+++ b/Project/BuildProto/Excel/UIWindow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A246B8-09A6-42F2-996C-D8823FCF1C0E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0101D-BB8F-43DA-8261-CB5728756D1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9300" yWindow="9900" windowWidth="20460" windowHeight="10725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="2295" windowWidth="26010" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow_Config" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>id唯一</t>
   </si>
@@ -77,6 +77,42 @@
   </si>
   <si>
     <t>Prefabs/UI/LoginWindow/LoginWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>className</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存时间(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/LobbyWindow/LobbyWindow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,19 +488,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,8 +512,14 @@
       <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -485,8 +529,14 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -496,16 +546,45 @@
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Project/BuildProto/Excel/UIWindow.xlsx
+++ b/Project/BuildProto/Excel/UIWindow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\Null\Project\BuildProto\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A0101D-BB8F-43DA-8261-CB5728756D1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C250871-4907-4D8B-BDF1-D73B5C9967AC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6090" yWindow="2295" windowWidth="26010" windowHeight="17910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>id唯一</t>
   </si>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>Prefabs/UI/LobbyWindow/LobbyWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetNameWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/UI/SetNameWindow/SetNameWindow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,16 +496,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="6" width="14.85546875" customWidth="1"/>
   </cols>
@@ -584,6 +592,23 @@
         <v>17</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
     </row>
